--- a/AGREE Evaluation aggregate.xlsx
+++ b/AGREE Evaluation aggregate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirubel\Documents\Review 1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirubel\Documents\PhD Projects\Review 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B3D68F-4FE3-4535-8E61-3254F63211A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB35A5E-184C-4337-B400-CF29ACEC969B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8004" xr2:uid="{AFCA20D6-8D60-4EB8-BD98-40862BDF6F4D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Guideline</t>
   </si>
@@ -73,12 +74,21 @@
   </si>
   <si>
     <t>CLEAR</t>
+  </si>
+  <si>
+    <t>TRIPOD-AI</t>
+  </si>
+  <si>
+    <t>APPRAISE-AI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,11 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -427,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A82167B-3751-45A9-9F02-736A9D646DEA}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,21 +474,21 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>88.89</v>
+        <v>88.9</v>
       </c>
       <c r="C2">
-        <v>70.83</v>
+        <v>70.8</v>
       </c>
       <c r="D2">
-        <v>70.31</v>
+        <v>70.3</v>
       </c>
       <c r="E2">
-        <v>70.83</v>
-      </c>
-      <c r="F2">
+        <v>70.8</v>
+      </c>
+      <c r="F2" s="2">
         <v>47.91</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>97.91</v>
       </c>
     </row>
@@ -489,18 +500,18 @@
         <v>87.5</v>
       </c>
       <c r="C3">
-        <v>83.33</v>
+        <v>83.3</v>
       </c>
       <c r="D3">
-        <v>76.040000000000006</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>72.22</v>
-      </c>
-      <c r="F3">
+        <v>72.2</v>
+      </c>
+      <c r="F3" s="2">
         <v>70.83</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>85.41</v>
       </c>
     </row>
@@ -509,21 +520,21 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>73.61</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C4">
-        <v>40.270000000000003</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="D4">
-        <v>53.16</v>
+        <v>53.1</v>
       </c>
       <c r="E4">
-        <v>56.94</v>
-      </c>
-      <c r="F4">
+        <v>56.9</v>
+      </c>
+      <c r="F4" s="2">
         <v>36.450000000000003</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>75.010000000000005</v>
       </c>
     </row>
@@ -532,21 +543,21 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>91.67</v>
+        <v>91.6</v>
       </c>
       <c r="C5">
-        <v>84.72</v>
+        <v>84.7</v>
       </c>
       <c r="D5">
-        <v>75.52</v>
+        <v>75.5</v>
       </c>
       <c r="E5">
-        <v>81.94</v>
-      </c>
-      <c r="F5">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F5" s="2">
         <v>63.54</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>97.91</v>
       </c>
     </row>
@@ -555,21 +566,21 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>68.06</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C6">
-        <v>56.94</v>
+        <v>56.9</v>
       </c>
       <c r="D6">
-        <v>35.42</v>
+        <v>35.4</v>
       </c>
       <c r="E6">
-        <v>43.06</v>
-      </c>
-      <c r="F6">
+        <v>43.1</v>
+      </c>
+      <c r="F6" s="2">
         <v>26.04</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>77.08</v>
       </c>
     </row>
@@ -578,21 +589,21 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>90.28</v>
+        <v>90.3</v>
       </c>
       <c r="C7">
-        <v>72.22</v>
+        <v>72.2</v>
       </c>
       <c r="D7">
-        <v>66.150000000000006</v>
+        <v>66.2</v>
       </c>
       <c r="E7">
-        <v>70.83</v>
-      </c>
-      <c r="F7">
+        <v>70.8</v>
+      </c>
+      <c r="F7" s="2">
         <v>61.45</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>93.75</v>
       </c>
     </row>
@@ -601,21 +612,21 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>93.28</v>
+        <v>93.3</v>
       </c>
       <c r="C8">
-        <v>90.28</v>
+        <v>90.3</v>
       </c>
       <c r="D8">
-        <v>79.17</v>
+        <v>79.2</v>
       </c>
       <c r="E8">
-        <v>83.33</v>
-      </c>
-      <c r="F8">
+        <v>83.3</v>
+      </c>
+      <c r="F8" s="2">
         <v>70.83</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>97.91</v>
       </c>
     </row>
@@ -624,21 +635,21 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>91.67</v>
+        <v>91.7</v>
       </c>
       <c r="C9">
-        <v>44.44</v>
+        <v>44.4</v>
       </c>
       <c r="D9">
-        <v>31.25</v>
+        <v>31.3</v>
       </c>
       <c r="E9">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2">
         <v>44.79</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>85.42</v>
       </c>
     </row>
@@ -647,22 +658,68 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>93.05</v>
+        <v>93.1</v>
       </c>
       <c r="C10">
-        <v>69.44</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="D10">
-        <v>68.23</v>
+        <v>68.2</v>
       </c>
       <c r="E10">
-        <v>76.39</v>
-      </c>
-      <c r="F10">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F10" s="2">
         <v>80.209999999999994</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>87.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>84.7</v>
+      </c>
+      <c r="C11">
+        <v>93.1</v>
+      </c>
+      <c r="D11">
+        <v>79.5</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G11" s="2">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>87.5</v>
+      </c>
+      <c r="C12">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D12">
+        <v>76</v>
+      </c>
+      <c r="E12">
+        <v>69.8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>89.6</v>
       </c>
     </row>
   </sheetData>
